--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>3227600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>3178400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>3178400</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2865100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>2865100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>7139400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>7139400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>5389700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>5389700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>3263200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>3263200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>3606100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>3606100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>8602900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>8602900</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3874900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>3874900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>5272800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>5272800</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>3536000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>3536000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>4678500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>4678500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>5915800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>5915800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>2812000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>6011300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>6011300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>7340400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>5629700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>5629700</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>5012700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>5012700</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>3397600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>3397600</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>3286900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>3286900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>7462500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>7462500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>8509600</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>6563300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>6563300</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>6468500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>6468500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>8646300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1874"/>
+  <dimension ref="A1:I1875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65968,6 +65968,41 @@
         <v>8646300</v>
       </c>
     </row>
+    <row r="1875">
+      <c r="A1875" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1875" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F1875" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="G1875" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="H1875" t="n">
+        <v>5</v>
+      </c>
+      <c r="I1875" t="n">
+        <v>13145900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1875"/>
+  <dimension ref="A1:I1876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66003,6 +66003,41 @@
         <v>13145900</v>
       </c>
     </row>
+    <row r="1876">
+      <c r="A1876" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1876" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F1876" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="G1876" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="H1876" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="I1876" t="n">
+        <v>18016500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1876"/>
+  <dimension ref="A1:I1877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66038,6 +66038,41 @@
         <v>18016500</v>
       </c>
     </row>
+    <row r="1877">
+      <c r="A1877" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1877" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F1877" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="G1877" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="H1877" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I1877" t="n">
+        <v>9900500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1877"/>
+  <dimension ref="A1:I1878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66073,6 +66073,41 @@
         <v>9900500</v>
       </c>
     </row>
+    <row r="1878">
+      <c r="A1878" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1878" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F1878" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="G1878" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="H1878" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="I1878" t="n">
+        <v>3445200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1878"/>
+  <dimension ref="A1:I1879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66108,6 +66108,41 @@
         <v>3445200</v>
       </c>
     </row>
+    <row r="1879">
+      <c r="A1879" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1879" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="F1879" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="G1879" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="H1879" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="I1879" t="n">
+        <v>10941800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1879"/>
+  <dimension ref="A1:I1880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66143,6 +66143,41 @@
         <v>10941800</v>
       </c>
     </row>
+    <row r="1880">
+      <c r="A1880" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1880" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F1880" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="G1880" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H1880" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="I1880" t="n">
+        <v>6279100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1880"/>
+  <dimension ref="A1:I1881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66178,6 +66178,41 @@
         <v>6279100</v>
       </c>
     </row>
+    <row r="1881">
+      <c r="A1881" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1881" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="F1881" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1881" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="H1881" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="I1881" t="n">
+        <v>4195300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1881"/>
+  <dimension ref="A1:I1882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66213,6 +66213,41 @@
         <v>4195300</v>
       </c>
     </row>
+    <row r="1882">
+      <c r="A1882" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1882" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F1882" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="G1882" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="H1882" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I1882" t="n">
+        <v>1553300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1882"/>
+  <dimension ref="A1:I1883"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66248,6 +66248,41 @@
         <v>1553300</v>
       </c>
     </row>
+    <row r="1883">
+      <c r="A1883" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1883" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F1883" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="G1883" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="H1883" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="I1883" t="n">
+        <v>4661600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1883"/>
+  <dimension ref="A1:I1884"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66283,6 +66283,41 @@
         <v>4661600</v>
       </c>
     </row>
+    <row r="1884">
+      <c r="A1884" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1884" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F1884" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="G1884" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="H1884" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I1884" t="n">
+        <v>4791600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1884"/>
+  <dimension ref="A1:I1885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66318,6 +66318,41 @@
         <v>4791600</v>
       </c>
     </row>
+    <row r="1885">
+      <c r="A1885" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1885" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F1885" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G1885" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H1885" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="I1885" t="n">
+        <v>4016800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1885"/>
+  <dimension ref="A1:I1886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66353,6 +66353,41 @@
         <v>4016800</v>
       </c>
     </row>
+    <row r="1886">
+      <c r="A1886" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1886" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="F1886" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G1886" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="H1886" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="I1886" t="n">
+        <v>6784500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1886"/>
+  <dimension ref="A1:I1887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66388,6 +66388,41 @@
         <v>6784500</v>
       </c>
     </row>
+    <row r="1887">
+      <c r="A1887" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1887" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F1887" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="G1887" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="H1887" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="I1887" t="n">
+        <v>4172700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1887"/>
+  <dimension ref="A1:I1888"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66423,6 +66423,41 @@
         <v>4172700</v>
       </c>
     </row>
+    <row r="1888">
+      <c r="A1888" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1888" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F1888" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="G1888" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="H1888" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="I1888" t="n">
+        <v>6329300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1888"/>
+  <dimension ref="A1:I1889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66458,6 +66458,41 @@
         <v>6329300</v>
       </c>
     </row>
+    <row r="1889">
+      <c r="A1889" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1889" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F1889" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G1889" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="H1889" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="I1889" t="n">
+        <v>3785800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1889"/>
+  <dimension ref="A1:I1890"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66493,6 +66493,41 @@
         <v>3785800</v>
       </c>
     </row>
+    <row r="1890">
+      <c r="A1890" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1890" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="F1890" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="G1890" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="H1890" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="I1890" t="n">
+        <v>4680200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1890"/>
+  <dimension ref="A1:I1891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66528,6 +66528,41 @@
         <v>4680200</v>
       </c>
     </row>
+    <row r="1891">
+      <c r="A1891" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1891" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F1891" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G1891" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="H1891" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="I1891" t="n">
+        <v>4730300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1891"/>
+  <dimension ref="A1:I1892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66563,6 +66563,41 @@
         <v>4730300</v>
       </c>
     </row>
+    <row r="1892">
+      <c r="A1892" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1892" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F1892" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="G1892" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="H1892" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="I1892" t="n">
+        <v>2893000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1892"/>
+  <dimension ref="A1:I1893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66598,6 +66598,41 @@
         <v>2893000</v>
       </c>
     </row>
+    <row r="1893">
+      <c r="A1893" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1893" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G1893" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H1893" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="I1893" t="n">
+        <v>5416700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1893"/>
+  <dimension ref="A1:I1894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66633,6 +66633,41 @@
         <v>5416700</v>
       </c>
     </row>
+    <row r="1894">
+      <c r="A1894" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1894" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F1894" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="G1894" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="H1894" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I1894" t="n">
+        <v>2215100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1894"/>
+  <dimension ref="A1:I1895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66668,6 +66668,41 @@
         <v>2215100</v>
       </c>
     </row>
+    <row r="1895">
+      <c r="A1895" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1895" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F1895" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="G1895" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="H1895" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="I1895" t="n">
+        <v>4044000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1895"/>
+  <dimension ref="A1:I1896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66703,6 +66703,41 @@
         <v>4044000</v>
       </c>
     </row>
+    <row r="1896">
+      <c r="A1896" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1896" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F1896" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="G1896" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="H1896" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I1896" t="n">
+        <v>6955500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1896"/>
+  <dimension ref="A1:I1897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66738,6 +66738,41 @@
         <v>6955500</v>
       </c>
     </row>
+    <row r="1897">
+      <c r="A1897" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1897" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F1897" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G1897" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H1897" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="I1897" t="n">
+        <v>3548900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1897"/>
+  <dimension ref="A1:I1898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66773,6 +66773,41 @@
         <v>3548900</v>
       </c>
     </row>
+    <row r="1898">
+      <c r="A1898" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1898" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="F1898" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G1898" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="H1898" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="I1898" t="n">
+        <v>4298200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1898"/>
+  <dimension ref="A1:I1899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66808,6 +66808,41 @@
         <v>4298200</v>
       </c>
     </row>
+    <row r="1899">
+      <c r="A1899" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1899" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F1899" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="G1899" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H1899" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="I1899" t="n">
+        <v>7907200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1899"/>
+  <dimension ref="A1:I1901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66843,6 +66843,76 @@
         <v>7907200</v>
       </c>
     </row>
+    <row r="1900">
+      <c r="A1900" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1900" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="F1900" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G1900" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="H1900" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="I1900" t="n">
+        <v>3635500</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1901" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="F1901" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G1901" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="H1901" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="I1901" t="n">
+        <v>1790400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1901"/>
+  <dimension ref="A1:I1902"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66913,6 +66913,41 @@
         <v>1790400</v>
       </c>
     </row>
+    <row r="1902">
+      <c r="A1902" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1902" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F1902" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="G1902" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1902" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="I1902" t="n">
+        <v>5426100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1902"/>
+  <dimension ref="A1:I1905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66948,6 +66948,111 @@
         <v>5426100</v>
       </c>
     </row>
+    <row r="1903">
+      <c r="A1903" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1903" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="F1903" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="G1903" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="H1903" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I1903" t="n">
+        <v>2464000</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1904" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F1904" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="G1904" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="H1904" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="I1904" t="n">
+        <v>5495600</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1905" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F1905" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="G1905" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="H1905" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="I1905" t="n">
+        <v>1193800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1905"/>
+  <dimension ref="A1:I1906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67053,6 +67053,41 @@
         <v>1193800</v>
       </c>
     </row>
+    <row r="1906">
+      <c r="A1906" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1906" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F1906" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="G1906" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="H1906" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="I1906" t="n">
+        <v>3281400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1906"/>
+  <dimension ref="A1:I1907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67088,6 +67088,41 @@
         <v>3281400</v>
       </c>
     </row>
+    <row r="1907">
+      <c r="A1907" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1907" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="F1907" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="G1907" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="H1907" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="I1907" t="n">
+        <v>2632400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5225.xlsx
+++ b/data/5225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1907"/>
+  <dimension ref="A1:I1910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67123,6 +67123,111 @@
         <v>2632400</v>
       </c>
     </row>
+    <row r="1908">
+      <c r="A1908" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1908" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="F1908" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="G1908" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="H1908" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I1908" t="n">
+        <v>4213800</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1909" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="F1909" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="G1909" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="H1909" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="I1909" t="n">
+        <v>2837600</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>IHH</t>
+        </is>
+      </c>
+      <c r="E1910" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="F1910" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="G1910" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="H1910" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="I1910" t="n">
+        <v>1158200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
